--- a/TestCases/MyStoreTestCases_V01.xlsx
+++ b/TestCases/MyStoreTestCases_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prach\Desktop\CS_AutomationFramework\MyStoreV1\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inder jeet\Downloads\CS_FrameworkSeleniumJava-master\CS_FrameworkSeleniumJava-master\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD9FF01-27EB-46C4-93E0-CE4AA726FB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83696B-00B4-480A-8FD2-105308CF8ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{AD5819F3-5A36-4C52-85CD-E2E68A81A7DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{AD5819F3-5A36-4C52-85CD-E2E68A81A7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>Page Class</t>
   </si>
@@ -229,12 +228,6 @@
     <t>Verify User Registration &amp; Login</t>
   </si>
   <si>
-    <t>2. Open this url  http://automationpractice.com/index.php</t>
-  </si>
-  <si>
-    <t>1. Open link http://automationpractice.com/index.php</t>
-  </si>
-  <si>
     <t>Buy Product</t>
   </si>
   <si>
@@ -281,9 +274,6 @@
   </si>
   <si>
     <t>TC_05</t>
-  </si>
-  <si>
-    <t>2. Open link http://automationpractice.com/index.php</t>
   </si>
   <si>
     <t>3.Click on sign in link</t>
@@ -367,6 +357,18 @@
   </si>
   <si>
     <t>3. Click on menu 'T-shirts'.</t>
+  </si>
+  <si>
+    <t>2. Open this url  http://amazon.in</t>
+  </si>
+  <si>
+    <t>1. Open link //http://amazon.in</t>
+  </si>
+  <si>
+    <t>1. Open link http://amazon.in</t>
+  </si>
+  <si>
+    <t>2. Open link http://amazon.in</t>
   </si>
 </sst>
 </file>
@@ -464,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -794,15 +796,15 @@
       <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.78515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.92578125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="3" max="3" width="29.8984375" customWidth="1"/>
+    <col min="4" max="4" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -810,7 +812,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -838,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -848,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -862,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -876,7 +878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -886,7 +888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -900,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -914,7 +916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -928,7 +930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -942,27 +944,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -990,15 +992,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.78515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.92578125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="3" max="3" width="29.8984375" customWidth="1"/>
+    <col min="4" max="4" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +1008,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -1044,7 +1046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1054,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1064,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1078,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1134,27 +1136,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -1179,20 +1181,20 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.09765625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
@@ -1220,95 +1222,95 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="37" x14ac:dyDescent="0.45">
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="37" x14ac:dyDescent="0.45">
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="37" x14ac:dyDescent="0.45">
-      <c r="C18" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>54</v>
@@ -1317,120 +1319,120 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="37" x14ac:dyDescent="0.45">
-      <c r="C24" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="37" x14ac:dyDescent="0.45">
-      <c r="C25" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="37" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C28" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="37" x14ac:dyDescent="0.45">
-      <c r="C29" s="4" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C30" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="B32" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C34" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="37" x14ac:dyDescent="0.45">
-      <c r="C35" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C36" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="37" x14ac:dyDescent="0.45">
-      <c r="C37" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C38" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C39" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C40" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C41" s="4" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="37" x14ac:dyDescent="0.45">
-      <c r="C42" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C43" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>55</v>
@@ -1439,70 +1441,70 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C48" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C47" s="4" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="37" x14ac:dyDescent="0.45">
-      <c r="C48" s="4" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="37" x14ac:dyDescent="0.45">
-      <c r="C49" s="4" t="s">
+    <row r="52" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C52" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C50" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C51" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="74" x14ac:dyDescent="0.45">
-      <c r="C52" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C55" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="37" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="37" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="50.5" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="35.25" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
